--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -19,7 +19,7 @@
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-04</t>
+    <t>2023-04-06</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-23</t>
+    <t>2023-04-24</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>
@@ -253,292 +253,850 @@
     <t>备注</t>
   </si>
   <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|u|L|</t>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|L|</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|u|L|</t>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|L|</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|u|L|</t>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|L|</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|u|L|</t>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|L|</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|u|R|</t>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|L|</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTAATTGAGAGTGCTCCTGAGTATGGG</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|u|R|</t>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|L|</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGGAAGTACCTATAATTGATACGTGG</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|u|R|</t>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|L|</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGGTTTATCCTCTTTCGTTACCGCCG</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|u|R|</t>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|L|</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTTCCTCTTCTGCAAACCCTCGT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|d|L|</t>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|L|</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACT</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|d|L|</t>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|R|</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCT</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|d|L|</t>
+    <t>GGTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|R|</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCT</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|d|L|</t>
+    <t>GGTCTTCTGTTTCGCGGACAGGCCTTCACGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|R|</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|d|R|</t>
+    <t>GGTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|R|</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGACAAAACCTACGATACCAACGTGGA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|d|R|</t>
+    <t>GGTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|R|</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGATCACGCCAAGGCTGACGCT</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|d|R|</t>
+    <t>GGTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|R|</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGAGTGGGATGGCGCAATTCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|d|R|</t>
+    <t>GGTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|R|</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGCTGAAGCGATTTCGCAGCA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|f|L|</t>
+    <t>GGTCTTCTGTTCAGACGGAGGGTCTGTTT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|R|</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|f|R|</t>
+    <t>GGTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|R|</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCAGGTGTTTAGAGGCGATTCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|f|R|</t>
+    <t>GGTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|L|</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCTGACTGCCTGATTTCACACGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|f|R|</t>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|L|</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTGAACAGCTGGCAGAAATCCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|f|R|</t>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|L|</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGTGAAATGTTTCGGCGTACCGCTTAAGATCTGACTCCA</t>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|L|</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|L|</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|L|</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|L|</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|L|</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAAT</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|L|</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|R|</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATAGCCAGTGGAACCCGCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|R|</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGAAGCCATAGAAGCCTGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|R|</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAAAGAACTGTACTAAATCCTGCCAGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|R|</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACCTGTGAGTTTTCCAATGCCTTCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|R|</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATCGACCTCTCCCGACTGATCACC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|R|</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGTCAATTGCTGATCTACATACCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|R|</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATATCGATCTTGATGCTATTGCGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|R|</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGCACAACGGCGGGCCGAG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|R|</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACTCTACGGAGCGTGTGCGCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|L|</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|R|</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|f|R|</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|f|R|</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|f|R|</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|f|R|</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|f|R|</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|f|R|</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|f|R|</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|plasmid|b|L|</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>M1|plasmid|b|R|</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTACAGGCCCATGGATTCTT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|p|1|</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>GCACAAAGCATCTTCTGTTGAGT</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|g|1|</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGG</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|g|1|</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTG</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|g|1|</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGT</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|g|1|</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGT</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|g|2|</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>ACCTTTGGTGTTACTTGGGGCGA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|g|2|</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>GGCACCTTCCGCGCCGA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|g|2|</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>TCACCAACGTATCGGGCATTGC</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|g|2|</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>TGGAAGAGTTCGCACGCACGA</t>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTttaaccgcgccacgcttt</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|1|</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>TGCTCACCCAGAAACGCTG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|2|</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>TACCGCTCGCCGCAGCC</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|3|</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>AGCATCTCCGAGCGCAACT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p|3|</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>ACCACCGAGTTTGATTTCGAAACG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p|3|</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>GCAGCCGCCGACATCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p|3|</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>GCCTGTTGTTGGGCGCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|3|</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>CCCAGCAGCGCCCACGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p|3|</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>ACGTTGCAGTGGAGCAGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p|3|</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>TGGTCGCACCCTTCTTATCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p|3|</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>CGGCATAAAACGCTCAGTGGTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p|3|</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>ACCGTGGTCAATGTGGGCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|4|</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>CACTGAGCGAACGCCTGCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p|4|</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p|4|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p|4|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>GGCACGCCGATTCCTTGGAC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|4|</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>cctggcaggcactacagaaacact</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p|4|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>CCGGATCGCTTTGAGGGTCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p|4|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>TCCCTGATTATGCTGCTGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p|4|</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CCGACCATGAGCTTTTTCATCGCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p|4|</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>CGGACAGGACCTTGGGTTCGT</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|5|</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>TCACTGCGTACAAAGAGGGCCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|5|</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>gcccatagcgcgcgtg</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|6|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>acccgctctctgatcatcacca</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|7|</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CCCGGTGTTGGGCGACTGT</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|8|</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>TGGTCAATGTCGCGGGGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>GCCAAGAAACCGGCCAGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>GGTGTAGGGGTCGCAGGTTCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>GCTCCGTTGATGCCAGCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>AGCAGTTGGAGCGCGATGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>GCCAGAAGCTCGCGTGGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>TGTGTTCATGCTGGCTGGTGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>TGGTACGTGGCTACCGGCG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>GGCACCTGCGTCGGTTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>GCCTCGCCATCGTCACAGGT</t>
   </si>
 </sst>
 </file>
@@ -642,7 +1200,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D42" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D104" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -938,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1148,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1162,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1176,7 +1734,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1190,7 +1748,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1204,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1218,7 +1776,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1232,7 +1790,7 @@
         <v>58</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1246,7 +1804,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1260,7 +1818,7 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1274,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1302,7 +1860,7 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1316,7 +1874,7 @@
         <v>76</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1330,7 +1888,7 @@
         <v>79</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1344,7 +1902,7 @@
         <v>82</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1358,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1372,7 +1930,7 @@
         <v>88</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1386,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1400,7 +1958,7 @@
         <v>94</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1414,7 +1972,7 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1428,7 +1986,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1442,7 +2000,7 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1456,7 +2014,7 @@
         <v>106</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1470,7 +2028,7 @@
         <v>109</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1484,7 +2042,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1498,7 +2056,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1512,7 +2070,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1526,7 +2084,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1540,7 +2098,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1554,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1568,7 +2126,875 @@
         <v>130</v>
       </c>
       <c r="D41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69">
         <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="527">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-25</t>
+    <t>2023-04-26</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>
@@ -253,292 +253,1480 @@
     <t>备注</t>
   </si>
   <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|u|L|</t>
+    <t>M1|b0455;NC_000913.3:476447-476561|u|L|</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|u|L|</t>
+    <t>CCAGGTCTCACTGTCTGAGGTAATTTTTCAGCATAATCT</t>
+  </si>
+  <si>
+    <t>M1|b4425;NC_000913.3:1287065-1287236|u|L|</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|u|L|</t>
+    <t>CCAGGTCTCACTGTGCTTCGCCCTTCGGGT</t>
+  </si>
+  <si>
+    <t>M1|b4429;NC_000913.3:1492118-1492175|u|L|</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|u|L|</t>
+    <t>CCAGGTCTCACTGTAACCGCAGTTCGTAGAGCG</t>
+  </si>
+  <si>
+    <t>M1|b4431;NC_000913.3:1770371-1770477|u|L|</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|u|R|</t>
+    <t>CCAGGTCTCACTGTGCTAATTGATATTTGCTTGCTCT</t>
+  </si>
+  <si>
+    <t>M1|b4432;NC_000913.3:1923065-1923337|u|L|</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTAATTGAGAGTGCTCCTGAGTATGGG</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|u|R|</t>
+    <t>CCAGGTCTCACTGTGCCATTGATGACCCGCAATT</t>
+  </si>
+  <si>
+    <t>M1|b4439;NC_000913.3:2313083-2313176|u|L|</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGGAAGTACCTATAATTGATACGTGG</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|u|R|</t>
+    <t>CCAGGTCTCACTGTCTTTTTAAGATTATTGCGGAATGGC</t>
+  </si>
+  <si>
+    <t>M1|b4440;NC_000913.3:2653854-2654158|u|L|</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGGTTTATCCTCTTTCGTTACCGCCG</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|u|R|</t>
+    <t>CCAGGTCTCACTGTGTTGCTGGTCCGGTTCGC</t>
+  </si>
+  <si>
+    <t>M1|b4442;NC_000913.3:2814801-2814874|u|L|</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTTCCTCTTCTGCAAACCCTCGT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|d|L|</t>
+    <t>CCAGGTCTCACTGTTTCATTGTTTTCGCCACCCG</t>
+  </si>
+  <si>
+    <t>M1|b4444;NC_000913.3:2976101-2976189|u|L|</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACT</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|d|L|</t>
+    <t>CCAGGTCTCACTGTCCGTAACGCGAACGC</t>
+  </si>
+  <si>
+    <t>M1|b4445;NC_000913.3:2976303-2976385|u|L|</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCT</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|d|L|</t>
+    <t>CCAGGTCTCACTGTCCGAATAATCTCACCAATCAATACC</t>
+  </si>
+  <si>
+    <t>M1|b4454;NC_000913.3:3700135-3700199|u|L|</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCT</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|d|L|</t>
+    <t>CCAGGTCTCACTGTTGTTCAGCCAGTTCACGATCA</t>
+  </si>
+  <si>
+    <t>M1|b4459;NC_000913.3:4277925-4278066|u|L|</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|d|R|</t>
+    <t>CCAGGTCTCACTGTCGCATTCATACCTTAGTGGCG</t>
+  </si>
+  <si>
+    <t>M1|b4616;NC_000913.3:3853117-3853257|u|L|</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGACAAAACCTACGATACCAACGTGGA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|d|R|</t>
+    <t>CCAGGTCTCACTGTGCATGGAAGTAGTCATTGGGGA</t>
+  </si>
+  <si>
+    <t>M1|b4698;NC_000913.3:1622816-1622914|u|L|</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGATCACGCCAAGGCTGACGCT</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|d|R|</t>
+    <t>CCAGGTCTCACTGTGGCCGTACTGGGAATAATTT</t>
+  </si>
+  <si>
+    <t>M1|b4701;NC_000913.3:2887352-2887411|u|L|</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGAGTGGGATGGCGCAATTCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|d|R|</t>
+    <t>CCAGGTCTCACTGTAAAAGGTTCCATTAATAGCCTCCCT</t>
+  </si>
+  <si>
+    <t>M1|b4718;NC_000913.3:3658991-3659082|u|L|</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTAGCTGAAGCGATTTCGCAGCA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|f|L|</t>
+    <t>CCAGGTCTCACTGTGACGTATGAGCGACATCGTCA</t>
+  </si>
+  <si>
+    <t>M1|b4760;NC_000913.3:3808165-3808238|u|L|</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|f|R|</t>
+    <t>CCAGGTCTCACTGTGATTTTTGCATCAGGATAATTCTGC</t>
+  </si>
+  <si>
+    <t>M1|b4761;NC_000913.3:2640594-2640686|u|L|</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCAGGTGTTTAGAGGCGATTCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|f|R|</t>
+    <t>CCAGGTCTCACTGTGCGGATTTCACTGTAACCGT</t>
+  </si>
+  <si>
+    <t>M1|b4764;NC_000913.3:765049-765150|u|L|</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCTGACTGCCTGATTTCACACGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|f|R|</t>
+    <t>CCAGGTCTCACTGTCAAACGTATGGGCCACGC</t>
+  </si>
+  <si>
+    <t>M1|b4804;NC_000913.3:3937044-3937278|u|L|</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTGAACAGCTGGCAGAAATCCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|f|R|</t>
+    <t>CCAGGTCTCACTGTTTCAGGCTGTATTCGCGCA</t>
+  </si>
+  <si>
+    <t>M1|b4805;NC_000913.3:2737380-2737542|u|L|</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGTGAAATGTTTCGGCGTACCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>M1|plasmid|b|L|</t>
+    <t>CCAGGTCTCACTGTAAAAATGGCAAACACATCTGAT</t>
+  </si>
+  <si>
+    <t>M1|b4808;NC_000913.3:708235-708333|u|L|</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|plasmid|b|R|</t>
+    <t>CCAGGTCTCACTGTACGCTTTTATTCTTCTGCAAGCC</t>
+  </si>
+  <si>
+    <t>M1|b4809;NC_000913.3:194783-194844|u|L|</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTACAGGCCCATGGATTCTT</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|p|1|</t>
+    <t>CCAGGTCTCACTGTATGTGTGGACGATGTGTTATCTG</t>
+  </si>
+  <si>
+    <t>M1|b4810;NC_000913.3:92484-92658|u|L|</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
+    <t>CCAGGTCTCACTGTAAACCGATGGTGGTAATGACC</t>
+  </si>
+  <si>
+    <t>M1|b4827;NC_000913.3:2001911-2002106|u|L|</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTCAGCGGTATAGAGTGAATTCAC</t>
+  </si>
+  <si>
+    <t>M1|b4828;NC_000913.3:1977207-1977302|u|L|</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCAAGGCTTCCACCGGTC</t>
+  </si>
+  <si>
+    <t>M1|b4833;NC_000913.3:1418404-1418502|u|L|</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTGATGCGGTGTCTGGTGC</t>
+  </si>
+  <si>
+    <t>M1|b4835;NC_000913.3:607732-607792|u|L|</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCGGGTTCAGCTTCAGTTGAT</t>
+  </si>
+  <si>
+    <t>M1|b0455;NC_000913.3:476447-476561|u|R|</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATTGAGAGCGTTGAGAACCA</t>
+  </si>
+  <si>
+    <t>M1|b4425;NC_000913.3:1287065-1287236|u|R|</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCACTTTCAAAAGTCCCTGAACT</t>
+  </si>
+  <si>
+    <t>M1|b4429;NC_000913.3:1492118-1492175|u|R|</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAATTCAGATCTTAGCCTCTTACCCG</t>
+  </si>
+  <si>
+    <t>M1|b4431;NC_000913.3:1770371-1770477|u|R|</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGAGCTAATAGTAGGCATACGGACT</t>
+  </si>
+  <si>
+    <t>M1|b4432;NC_000913.3:1923065-1923337|u|R|</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATAGTCAACCATAACACACACTCT</t>
+  </si>
+  <si>
+    <t>M1|b4439;NC_000913.3:2313083-2313176|u|R|</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGAGTTATTCTAGTTGCGAGTG</t>
+  </si>
+  <si>
+    <t>M1|b4440;NC_000913.3:2653854-2654158|u|R|</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGTGGATAATACACTAACAGAACA</t>
+  </si>
+  <si>
+    <t>M1|b4442;NC_000913.3:2814801-2814874|u|R|</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATATACTCAGACTCGCCTGGGA</t>
+  </si>
+  <si>
+    <t>M1|b4444;NC_000913.3:2976101-2976189|u|R|</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCACCTAATTTACTGTCGCT</t>
+  </si>
+  <si>
+    <t>M1|b4445;NC_000913.3:2976303-2976385|u|R|</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCGGTCATCAATCTGTAACAG</t>
+  </si>
+  <si>
+    <t>M1|b4454;NC_000913.3:3700135-3700199|u|R|</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCACTCAAGAATAGCCGCGAA</t>
+  </si>
+  <si>
+    <t>M1|b4459;NC_000913.3:4277925-4278066|u|R|</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTCATCTTCCAGCAAGCGTG</t>
+  </si>
+  <si>
+    <t>M1|b4616;NC_000913.3:3853117-3853257|u|R|</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTATCTGCAATTCAGTACAAAACG</t>
+  </si>
+  <si>
+    <t>M1|b4698;NC_000913.3:1622816-1622914|u|R|</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCCGTCATAAAAATCAGGCC</t>
+  </si>
+  <si>
+    <t>M1|b4701;NC_000913.3:2887352-2887411|u|R|</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAATTCGAATGTTAGTCTCTTCTTTG</t>
+  </si>
+  <si>
+    <t>M1|b4718;NC_000913.3:3658991-3659082|u|R|</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGTTTTAGCCTCTCCTTTAGT</t>
+  </si>
+  <si>
+    <t>M1|b4760;NC_000913.3:3808165-3808238|u|R|</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAACCAGACAATCACACAAAAGA</t>
+  </si>
+  <si>
+    <t>M1|b4761;NC_000913.3:2640594-2640686|u|R|</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATTCAGAAAGAGAATAAACGTGGCA</t>
+  </si>
+  <si>
+    <t>M1|b4764;NC_000913.3:765049-765150|u|R|</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTATTTCAGAACAGTTTTCAGTGCT</t>
+  </si>
+  <si>
+    <t>M1|b4804;NC_000913.3:3937044-3937278|u|R|</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCTGCTAGTTTGCCATCATTCA</t>
+  </si>
+  <si>
+    <t>M1|b4805;NC_000913.3:2737380-2737542|u|R|</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGTTAATTGCGGTGTACAT</t>
+  </si>
+  <si>
+    <t>M1|b4808;NC_000913.3:708235-708333|u|R|</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGAACAGACTATTTTTCGCGAC</t>
+  </si>
+  <si>
+    <t>M1|b4809;NC_000913.3:194783-194844|u|R|</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGCGCAGACTATATCACTGA</t>
+  </si>
+  <si>
+    <t>M1|b4810;NC_000913.3:92484-92658|u|R|</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGTAATACCCCGGTCAGG</t>
+  </si>
+  <si>
+    <t>M1|b4827;NC_000913.3:2001911-2002106|u|R|</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCCTGGAATTTACCTGTAACC</t>
+  </si>
+  <si>
+    <t>M1|b4828;NC_000913.3:1977207-1977302|u|R|</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCCCAATCGCGCGTTAA</t>
+  </si>
+  <si>
+    <t>M1|b4833;NC_000913.3:1418404-1418502|u|R|</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAAAGTGAATTTTGTGATGCGGTG</t>
+  </si>
+  <si>
+    <t>M1|b4835;NC_000913.3:607732-607792|u|R|</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCAGACCTCAGAGTAAACCTGA</t>
+  </si>
+  <si>
+    <t>M1|b0455;NC_000913.3:476447-476561|d|L|</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAACATTTCTGCCTCCCACCGTTT</t>
+  </si>
+  <si>
+    <t>M1|b4425;NC_000913.3:1287065-1287236|d|L|</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGAAAGTGATGGTGGTGGGGG</t>
+  </si>
+  <si>
+    <t>M1|b4429;NC_000913.3:1492118-1492175|d|L|</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGATTCCCGGTTAGCCTGA</t>
+  </si>
+  <si>
+    <t>M1|b4431;NC_000913.3:1770371-1770477|d|L|</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTCGAACATTTTTCCGCTTCGCTACC</t>
+  </si>
+  <si>
+    <t>M1|b4432;NC_000913.3:1923065-1923337|d|L|</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATCTGGAAATCAAAAGGCTATTTTAGGT</t>
+  </si>
+  <si>
+    <t>M1|b4439;NC_000913.3:2313083-2313176|d|L|</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCCTACCCTTCTTTACACACTTTTCA</t>
+  </si>
+  <si>
+    <t>M1|b4440;NC_000913.3:2653854-2654158|d|L|</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCACAGATTATCCGATTCTGTTTAAAGTC</t>
+  </si>
+  <si>
+    <t>M1|b4442;NC_000913.3:2814801-2814874|d|L|</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATACTTTTCTGTCAGGCGTGTTT</t>
+  </si>
+  <si>
+    <t>M1|b4444;NC_000913.3:2976101-2976189|d|L|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGTATCTTGATTGTGGTCTGCACG</t>
+  </si>
+  <si>
+    <t>M1|b4445;NC_000913.3:2976303-2976385|d|L|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGCATCACCACTTTAGCAACCTGA</t>
+  </si>
+  <si>
+    <t>M1|b4454;NC_000913.3:3700135-3700199|d|L|</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTGACTCTCTCCAGCAACCAATG</t>
+  </si>
+  <si>
+    <t>M1|b4459;NC_000913.3:4277925-4278066|d|L|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAAGGCTTTAATTGTATGTCACCGACGT</t>
+  </si>
+  <si>
+    <t>M1|b4616;NC_000913.3:3853117-3853257|d|L|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAATATAGTTGAGTATCGATCACAGTTTG</t>
+  </si>
+  <si>
+    <t>M1|b4698;NC_000913.3:1622816-1622914|d|L|</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGGGTTGACACAGTAGCATCAGT</t>
+  </si>
+  <si>
+    <t>M1|b4701;NC_000913.3:2887352-2887411|d|L|</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGGAACCTCGCGAATGCTT</t>
+  </si>
+  <si>
+    <t>M1|b4718;NC_000913.3:3658991-3659082|d|L|</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTCGTTGACCTCACCATGTC</t>
+  </si>
+  <si>
+    <t>M1|b4760;NC_000913.3:3808165-3808238|d|L|</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTCGTGCTAGTGTATCATTTCTTTCG</t>
+  </si>
+  <si>
+    <t>M1|b4761;NC_000913.3:2640594-2640686|d|L|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAAGTATTTTTCAACCTGCTGAACGTCA</t>
+  </si>
+  <si>
+    <t>M1|b4764;NC_000913.3:765049-765150|d|L|</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATAGCTTATCGCGATGATTTTCG</t>
+  </si>
+  <si>
+    <t>M1|b4804;NC_000913.3:3937044-3937278|d|L|</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGACATGGACATCCCGAATATGCA</t>
+  </si>
+  <si>
+    <t>M1|b4805;NC_000913.3:2737380-2737542|d|L|</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTTGACAGCGTGAAAACAGT</t>
+  </si>
+  <si>
+    <t>M1|b4808;NC_000913.3:708235-708333|d|L|</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTATGCGTACGTTTAGTGGCAA</t>
+  </si>
+  <si>
+    <t>M1|b4809;NC_000913.3:194783-194844|d|L|</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCGCTTTGTATAGGCTTCAGTATTCCTG</t>
+  </si>
+  <si>
+    <t>M1|b4810;NC_000913.3:92484-92658|d|L|</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGACCTTTCGGCTACGGGCTAATG</t>
+  </si>
+  <si>
+    <t>M1|b4827;NC_000913.3:2001911-2002106|d|L|</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGACGCGATTAACCCTGCAGCAGAGA</t>
+  </si>
+  <si>
+    <t>M1|b4828;NC_000913.3:1977207-1977302|d|L|</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGGGGGATAATATCGGCAGGATTCTG</t>
+  </si>
+  <si>
+    <t>M1|b4833;NC_000913.3:1418404-1418502|d|L|</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTCCATTTAAATTTAACAGACAAGACCG</t>
+  </si>
+  <si>
+    <t>M1|b4835;NC_000913.3:607732-607792|d|L|</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGTCAATTTGGATGGTAGTCCCTTCT</t>
+  </si>
+  <si>
+    <t>M1|b0455;NC_000913.3:476447-476561|d|R|</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGGAACGGCAACCACAAAACC</t>
+  </si>
+  <si>
+    <t>M1|b4425;NC_000913.3:1287065-1287236|d|R|</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAATCCTTCCCCCACCACC</t>
+  </si>
+  <si>
+    <t>M1|b4429;NC_000913.3:1492118-1492175|d|R|</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGGCTAAACTGGCTAACCCG</t>
+  </si>
+  <si>
+    <t>M1|b4431;NC_000913.3:1770371-1770477|d|R|</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCGTTCATCGTGTAATGGCT</t>
+  </si>
+  <si>
+    <t>M1|b4432;NC_000913.3:1923065-1923337|d|R|</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGCCAGTGGGAAGACC</t>
+  </si>
+  <si>
+    <t>M1|b4439;NC_000913.3:2313083-2313176|d|R|</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACCTACAAAAAGCCCAACAA</t>
+  </si>
+  <si>
+    <t>M1|b4440;NC_000913.3:2653854-2654158|d|R|</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTTACCTGGCGATGAACCAATC</t>
+  </si>
+  <si>
+    <t>M1|b4442;NC_000913.3:2814801-2814874|d|R|</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGCTGCGTGAAGAGCCG</t>
+  </si>
+  <si>
+    <t>M1|b4444;NC_000913.3:2976101-2976189|d|R|</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACCAGCCTGCGCAGATG</t>
+  </si>
+  <si>
+    <t>M1|b4445;NC_000913.3:2976303-2976385|d|R|</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTGGCGTGTTTTCATCGTGG</t>
+  </si>
+  <si>
+    <t>M1|b4454;NC_000913.3:3700135-3700199|d|R|</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAGCTGGAAGGCATCGCG</t>
+  </si>
+  <si>
+    <t>M1|b4459;NC_000913.3:4277925-4278066|d|R|</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGATCGTCGGTGCGCAAGATT</t>
+  </si>
+  <si>
+    <t>M2|b4616;NC_000913.3:3853117-3853257|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCACCCGTTTCAGCCAGGAC</t>
+  </si>
+  <si>
+    <t>M2|b4698;NC_000913.3:1622816-1622914|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGGTCATTGGAAGAGCGGACC</t>
+  </si>
+  <si>
+    <t>M2|b4701;NC_000913.3:2887352-2887411|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCTCTGTCAGAAATGATGGG</t>
+  </si>
+  <si>
+    <t>M2|b4718;NC_000913.3:3658991-3659082|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTCCCTGAAAATTCTTGAGAAAT</t>
+  </si>
+  <si>
+    <t>M2|b4760;NC_000913.3:3808165-3808238|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCGGCCCCATTTTCAAATCTACA</t>
+  </si>
+  <si>
+    <t>M2|b4761;NC_000913.3:2640594-2640686|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAGAAAAGCGGCCTCTATGAAGA</t>
+  </si>
+  <si>
+    <t>M2|b4764;NC_000913.3:765049-765150|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGATATCAGCCAGACAAAGCCGA</t>
+  </si>
+  <si>
+    <t>M2|b4804;NC_000913.3:3937044-3937278|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCTTTGCCGCCAAATGCAACC</t>
+  </si>
+  <si>
+    <t>M2|b4805;NC_000913.3:2737380-2737542|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTCGTCTTCGCATTCTGTTTCAC</t>
+  </si>
+  <si>
+    <t>M2|b4808;NC_000913.3:708235-708333|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCAGTAATAGATACCGCCGG</t>
+  </si>
+  <si>
+    <t>M2|b4809;NC_000913.3:194783-194844|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCATTGCCGTCCATAATGA</t>
+  </si>
+  <si>
+    <t>M2|b4810;NC_000913.3:92484-92658|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACAATGGATTCCGGGAAGACA</t>
+  </si>
+  <si>
+    <t>M2|b4827;NC_000913.3:2001911-2002106|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCAGTCCCGTATTCAGGA</t>
+  </si>
+  <si>
+    <t>M2|b4828;NC_000913.3:1977207-1977302|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAACTTTCCAGCTGCAACTGC</t>
+  </si>
+  <si>
+    <t>M2|b4833;NC_000913.3:1418404-1418502|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTATTGAAATGTTAACACAAGCTCT</t>
+  </si>
+  <si>
+    <t>M2|b4835;NC_000913.3:607732-607792|d|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCTTCACCGTAAACTCACACAGC</t>
+  </si>
+  <si>
+    <t>M2|b0455;NC_000913.3:476447-476561|f|L|</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACT</t>
+  </si>
+  <si>
+    <t>M2|b0455;NC_000913.3:476447-476561|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4425;NC_000913.3:1287065-1287236|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4429;NC_000913.3:1492118-1492175|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4431;NC_000913.3:1770371-1770477|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4432;NC_000913.3:1923065-1923337|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4439;NC_000913.3:2313083-2313176|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4440;NC_000913.3:2653854-2654158|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4442;NC_000913.3:2814801-2814874|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4444;NC_000913.3:2976101-2976189|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4445;NC_000913.3:2976303-2976385|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4454;NC_000913.3:3700135-3700199|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4459;NC_000913.3:4277925-4278066|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4616;NC_000913.3:3853117-3853257|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4698;NC_000913.3:1622816-1622914|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4701;NC_000913.3:2887352-2887411|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4718;NC_000913.3:3658991-3659082|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4760;NC_000913.3:3808165-3808238|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4761;NC_000913.3:2640594-2640686|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4764;NC_000913.3:765049-765150|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4804;NC_000913.3:3937044-3937278|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4805;NC_000913.3:2737380-2737542|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4808;NC_000913.3:708235-708333|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4809;NC_000913.3:194783-194844|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4810;NC_000913.3:92484-92658|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4827;NC_000913.3:2001911-2002106|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4828;NC_000913.3:1977207-1977302|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4833;NC_000913.3:1418404-1418502|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b4835;NC_000913.3:607732-607792|f|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>M2|b0455;NC_000913.3:476447-476561|p|1|</t>
+  </si>
+  <si>
     <t>GCACAAAGCATCTTCTGTTGAGT</t>
   </si>
   <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|g|1|</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGG</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|g|1|</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTG</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|g|1|</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGT</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|g|1|</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGT</t>
-  </si>
-  <si>
-    <t>M1|b3956_del;NC_000913.3:4150446-4153098|g|2|</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>ACCTTTGGTGTTACTTGGGGCGA</t>
-  </si>
-  <si>
-    <t>M1|b1101_del;NC_000913.3:1157868-1159302|g|2|</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>GGCACCTTCCGCGCCGA</t>
-  </si>
-  <si>
-    <t>M1|b2297_del;NC_000913.3:2414746-2416891|g|2|</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>TCACCAACGTATCGGGCATTGC</t>
-  </si>
-  <si>
-    <t>M1|b2296_del;NC_000913.3:2413469-2414672|g|2|</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>TGGAAGAGTTCGCACGCACGA</t>
+    <t>M2|b4810;NC_000913.3:92484-92658|g|1|</t>
+  </si>
+  <si>
+    <t>GAAGTGCTGGCGATGGCTAA</t>
+  </si>
+  <si>
+    <t>M2|b4809;NC_000913.3:194783-194844|g|1|</t>
+  </si>
+  <si>
+    <t>AACGAAATCACCGTTGCTGC</t>
+  </si>
+  <si>
+    <t>M2|b0455;NC_000913.3:476447-476561|g|1|</t>
+  </si>
+  <si>
+    <t>TTCGCCACATCACCGTAAGT</t>
+  </si>
+  <si>
+    <t>M2|b4835;NC_000913.3:607732-607792|g|1|</t>
+  </si>
+  <si>
+    <t>GGTGAACTGATGGTGCCTGA</t>
+  </si>
+  <si>
+    <t>M2|b4808;NC_000913.3:708235-708333|g|1|</t>
+  </si>
+  <si>
+    <t>TCTTCGCGAATTAATTCCGCT</t>
+  </si>
+  <si>
+    <t>M2|b4764;NC_000913.3:765049-765150|g|1|</t>
+  </si>
+  <si>
+    <t>GATCGGTGAGATCGGCGGTA</t>
+  </si>
+  <si>
+    <t>M2|b4425;NC_000913.3:1287065-1287236|g|1|</t>
+  </si>
+  <si>
+    <t>TTCTCATCCTTCCCCGCTTG</t>
+  </si>
+  <si>
+    <t>M2|b4833;NC_000913.3:1418404-1418502|g|1|</t>
+  </si>
+  <si>
+    <t>TCCGGCCTTCATGAAGAACA</t>
+  </si>
+  <si>
+    <t>M2|b4429;NC_000913.3:1492118-1492175|g|1|</t>
+  </si>
+  <si>
+    <t>AGGGGTGCCATGAGAAAATGA</t>
+  </si>
+  <si>
+    <t>M2|b4698;NC_000913.3:1622816-1622914|g|1|</t>
+  </si>
+  <si>
+    <t>CCTTCGTTTAGGTTACCTCTGCT</t>
+  </si>
+  <si>
+    <t>M2|b4431;NC_000913.3:1770371-1770477|g|1|</t>
+  </si>
+  <si>
+    <t>AAGAAGTCCCGCCGCC</t>
+  </si>
+  <si>
+    <t>M2|b4432;NC_000913.3:1923065-1923337|g|1|</t>
+  </si>
+  <si>
+    <t>TCGATAACGTCTCCCACTGAG</t>
+  </si>
+  <si>
+    <t>M2|b4828;NC_000913.3:1977207-1977302|g|1|</t>
+  </si>
+  <si>
+    <t>GCCTTCAGCGTGCCTTTAAT</t>
+  </si>
+  <si>
+    <t>M2|b4827;NC_000913.3:2001911-2002106|g|1|</t>
+  </si>
+  <si>
+    <t>CGCCTGTAGCAGATCGTCAA</t>
+  </si>
+  <si>
+    <t>M2|b4439;NC_000913.3:2313083-2313176|g|1|</t>
+  </si>
+  <si>
+    <t>GGCAAGTCCATTCTCCCCAA</t>
+  </si>
+  <si>
+    <t>M2|b4761;NC_000913.3:2640594-2640686|g|1|</t>
+  </si>
+  <si>
+    <t>CGCAGAGTCAGGCTGTCG</t>
+  </si>
+  <si>
+    <t>M2|b4805;NC_000913.3:2737380-2737542|g|1|</t>
+  </si>
+  <si>
+    <t>CACCAAGACGGGAAGACAAGA</t>
+  </si>
+  <si>
+    <t>M2|b4442;NC_000913.3:2814801-2814874|g|1|</t>
+  </si>
+  <si>
+    <t>CAAACAGGTGCTCCAGGGTA</t>
+  </si>
+  <si>
+    <t>M2|b4701;NC_000913.3:2887352-2887411|g|1|</t>
+  </si>
+  <si>
+    <t>TGATCCCACCAGCAATCTGC</t>
+  </si>
+  <si>
+    <t>M2|b4444;NC_000913.3:2976101-2976189|g|1|</t>
+  </si>
+  <si>
+    <t>ACACTGGACGCACAGGTAAA</t>
+  </si>
+  <si>
+    <t>M2|b4445;NC_000913.3:2976303-2976385|g|1|</t>
+  </si>
+  <si>
+    <t>AGCGAATGGAGGGAGATTACAC</t>
+  </si>
+  <si>
+    <t>M2|b4454;NC_000913.3:3700135-3700199|g|1|</t>
+  </si>
+  <si>
+    <t>GTAAGAACGAAAAAGGCCGCA</t>
+  </si>
+  <si>
+    <t>M2|b4760;NC_000913.3:3808165-3808238|g|1|</t>
+  </si>
+  <si>
+    <t>TATCGAAAGTTCCCGCACCT</t>
+  </si>
+  <si>
+    <t>M2|b4616;NC_000913.3:3853117-3853257|g|1|</t>
+  </si>
+  <si>
+    <t>CGTGTGTTGTTCCAGTCCCT</t>
+  </si>
+  <si>
+    <t>M2|b4804;NC_000913.3:3937044-3937278|g|1|</t>
+  </si>
+  <si>
+    <t>CCGTTGCTGCTCACAAGTTT</t>
+  </si>
+  <si>
+    <t>M2|b4459;NC_000913.3:4277925-4278066|g|1|</t>
+  </si>
+  <si>
+    <t>CGACCATTGGTGAAGCGTTT</t>
+  </si>
+  <si>
+    <t>M2|b4810;NC_000913.3:92484-92658|g|2|</t>
+  </si>
+  <si>
+    <t>GCGGTACCGGTTTTAATGGC</t>
+  </si>
+  <si>
+    <t>M2|b4809;NC_000913.3:194783-194844|g|2|</t>
+  </si>
+  <si>
+    <t>GCCTCAATACCGTTGTTGGC</t>
+  </si>
+  <si>
+    <t>M2|b0455;NC_000913.3:476447-476561|g|2|</t>
+  </si>
+  <si>
+    <t>TCACTTTGCCATCCGGTACA</t>
+  </si>
+  <si>
+    <t>M2|b4835;NC_000913.3:607732-607792|g|2|</t>
+  </si>
+  <si>
+    <t>CAGGCGTAATACCACAACCCT</t>
+  </si>
+  <si>
+    <t>M2|b4808;NC_000913.3:708235-708333|g|2|</t>
+  </si>
+  <si>
+    <t>TCAGCAGCATAACCGGACTG</t>
+  </si>
+  <si>
+    <t>M2|b4764;NC_000913.3:765049-765150|g|2|</t>
+  </si>
+  <si>
+    <t>GGCAGGTCATGGAAAATTCGA</t>
+  </si>
+  <si>
+    <t>M2|b4425;NC_000913.3:1287065-1287236|g|2|</t>
+  </si>
+  <si>
+    <t>CATCGGGGAAGGGTGAGAAC</t>
+  </si>
+  <si>
+    <t>M2|b4833;NC_000913.3:1418404-1418502|g|2|</t>
+  </si>
+  <si>
+    <t>GCCAGAGAGTGAGACCAAAA</t>
+  </si>
+  <si>
+    <t>M2|b4429;NC_000913.3:1492118-1492175|g|2|</t>
+  </si>
+  <si>
+    <t>AGAAAGTCATCGGCACTTGAC</t>
+  </si>
+  <si>
+    <t>M2|b4698;NC_000913.3:1622816-1622914|g|2|</t>
+  </si>
+  <si>
+    <t>TGCAGGTGTCAGAATTTGCC</t>
+  </si>
+  <si>
+    <t>M2|b4431;NC_000913.3:1770371-1770477|g|2|</t>
+  </si>
+  <si>
+    <t>GCACACTTGCCATTTTCCCA</t>
+  </si>
+  <si>
+    <t>M2|b4432;NC_000913.3:1923065-1923337|g|2|</t>
+  </si>
+  <si>
+    <t>GCGAAGAGGTGATGCTGACT</t>
+  </si>
+  <si>
+    <t>M2|b4828;NC_000913.3:1977207-1977302|g|2|</t>
+  </si>
+  <si>
+    <t>CGGTGATCAAAGCCTACCGT</t>
+  </si>
+  <si>
+    <t>M2|b4827;NC_000913.3:2001911-2002106|g|2|</t>
+  </si>
+  <si>
+    <t>CGCATCTGTAGACAAATTCCGT</t>
+  </si>
+  <si>
+    <t>M2|b4439;NC_000913.3:2313083-2313176|g|2|</t>
+  </si>
+  <si>
+    <t>AGGGTACAGTGTGAAATTCCAGA</t>
+  </si>
+  <si>
+    <t>M2|b4761;NC_000913.3:2640594-2640686|g|2|</t>
+  </si>
+  <si>
+    <t>GGAGCAACGCCTGGAAGATA</t>
+  </si>
+  <si>
+    <t>M2|b4440;NC_000913.3:2653854-2654158|g|2|</t>
+  </si>
+  <si>
+    <t>AGAGAACGAAGAGGCACAGC</t>
+  </si>
+  <si>
+    <t>M2|b4805;NC_000913.3:2737380-2737542|g|2|</t>
+  </si>
+  <si>
+    <t>GCGCTGATTTTCTCTCGCAG</t>
+  </si>
+  <si>
+    <t>M2|b4442;NC_000913.3:2814801-2814874|g|2|</t>
+  </si>
+  <si>
+    <t>GCCTGCTTCGATAATCCCGA</t>
+  </si>
+  <si>
+    <t>M2|b4701;NC_000913.3:2887352-2887411|g|2|</t>
+  </si>
+  <si>
+    <t>GCGATACCCATACAACCCGT</t>
+  </si>
+  <si>
+    <t>M2|b4444;NC_000913.3:2976101-2976189|g|2|</t>
+  </si>
+  <si>
+    <t>CGATTGACCGCTGGTGGC</t>
+  </si>
+  <si>
+    <t>M2|b4445;NC_000913.3:2976303-2976385|g|2|</t>
+  </si>
+  <si>
+    <t>GACTGAAACGCCTGCCAGTC</t>
+  </si>
+  <si>
+    <t>M2|b4718;NC_000913.3:3658991-3659082|g|2|</t>
+  </si>
+  <si>
+    <t>CCGACCTCAGGCGTCATG</t>
+  </si>
+  <si>
+    <t>M2|b4454;NC_000913.3:3700135-3700199|g|2|</t>
+  </si>
+  <si>
+    <t>CAGATTCACTGGGGAGGTCG</t>
+  </si>
+  <si>
+    <t>M3|b4760;NC_000913.3:3808165-3808238|g|2|</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>TGGCTTTACCATTACTTTTCCCG</t>
+  </si>
+  <si>
+    <t>M3|b4616;NC_000913.3:3853117-3853257|g|2|</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>TACCTTTCCGCTGCCTGTTG</t>
+  </si>
+  <si>
+    <t>M3|b4804;NC_000913.3:3937044-3937278|g|2|</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>TTATCAGTGGCGAGCTGCTG</t>
+  </si>
+  <si>
+    <t>M3|b4459;NC_000913.3:4277925-4278066|g|2|</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>TTATCCGGCGATCATAGCGG</t>
   </si>
 </sst>
 </file>
@@ -642,7 +1830,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D42" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D206" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -938,7 +2126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +2322,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1148,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1162,7 +2350,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1176,7 +2364,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1190,7 +2378,7 @@
         <v>49</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1204,7 +2392,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1218,7 +2406,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1246,7 +2434,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1260,7 +2448,7 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1274,7 +2462,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1302,7 +2490,7 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1330,7 +2518,7 @@
         <v>79</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1344,7 +2532,7 @@
         <v>82</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1358,7 +2546,7 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1372,7 +2560,7 @@
         <v>88</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1386,7 +2574,7 @@
         <v>91</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1400,7 +2588,7 @@
         <v>94</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1414,7 +2602,7 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1428,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1442,7 +2630,7 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1456,7 +2644,7 @@
         <v>106</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1470,7 +2658,7 @@
         <v>109</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1484,7 +2672,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1498,7 +2686,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1512,7 +2700,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1526,7 +2714,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1540,7 +2728,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1554,7 +2742,7 @@
         <v>127</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1568,7 +2756,2303 @@
         <v>130</v>
       </c>
       <c r="D41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" t="s">
+        <v>318</v>
+      </c>
+      <c r="C104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>320</v>
+      </c>
+      <c r="B105" t="s">
+        <v>321</v>
+      </c>
+      <c r="C105" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>331</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>346</v>
+      </c>
+      <c r="D117">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>349</v>
+      </c>
+      <c r="B119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" t="s">
+        <v>352</v>
+      </c>
+      <c r="D120">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" t="s">
+        <v>356</v>
+      </c>
+      <c r="D122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D123">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" t="s">
+        <v>360</v>
+      </c>
+      <c r="D124">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>362</v>
+      </c>
+      <c r="D125">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" t="s">
+        <v>364</v>
+      </c>
+      <c r="D126">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" t="s">
+        <v>368</v>
+      </c>
+      <c r="D128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" t="s">
+        <v>370</v>
+      </c>
+      <c r="D129">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>371</v>
+      </c>
+      <c r="B130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" t="s">
+        <v>372</v>
+      </c>
+      <c r="D130">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>373</v>
+      </c>
+      <c r="B131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" t="s">
+        <v>374</v>
+      </c>
+      <c r="D131">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>375</v>
+      </c>
+      <c r="B132" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" t="s">
+        <v>376</v>
+      </c>
+      <c r="D132">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>377</v>
+      </c>
+      <c r="B133" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>379</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" t="s">
+        <v>380</v>
+      </c>
+      <c r="D134">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>382</v>
+      </c>
+      <c r="D135">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" t="s">
+        <v>384</v>
+      </c>
+      <c r="D136">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>385</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" t="s">
+        <v>386</v>
+      </c>
+      <c r="D137">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
+        <v>388</v>
+      </c>
+      <c r="D138">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>392</v>
+      </c>
+      <c r="D140">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>394</v>
+      </c>
+      <c r="D141">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>396</v>
+      </c>
+      <c r="D142">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>397</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>398</v>
+      </c>
+      <c r="D143">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>399</v>
+      </c>
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" t="s">
+        <v>400</v>
+      </c>
+      <c r="D144">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>402</v>
+      </c>
+      <c r="D145">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>403</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" t="s">
+        <v>404</v>
+      </c>
+      <c r="D146">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>405</v>
+      </c>
+      <c r="B147" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" t="s">
+        <v>406</v>
+      </c>
+      <c r="D147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>407</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" t="s">
+        <v>408</v>
+      </c>
+      <c r="D148">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>409</v>
+      </c>
+      <c r="B149" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" t="s">
+        <v>410</v>
+      </c>
+      <c r="D149">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" t="s">
+        <v>412</v>
+      </c>
+      <c r="D150">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>413</v>
+      </c>
+      <c r="B151" t="s">
+        <v>171</v>
+      </c>
+      <c r="C151" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" t="s">
+        <v>416</v>
+      </c>
+      <c r="D152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" t="s">
+        <v>418</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>419</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>421</v>
+      </c>
+      <c r="B155" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" t="s">
+        <v>422</v>
+      </c>
+      <c r="D155">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>423</v>
+      </c>
+      <c r="B156" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" t="s">
+        <v>424</v>
+      </c>
+      <c r="D156">
         <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157" t="s">
+        <v>426</v>
+      </c>
+      <c r="D157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>427</v>
+      </c>
+      <c r="B158" t="s">
+        <v>192</v>
+      </c>
+      <c r="C158" t="s">
+        <v>428</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B159" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" t="s">
+        <v>430</v>
+      </c>
+      <c r="D159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>431</v>
+      </c>
+      <c r="B160" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>433</v>
+      </c>
+      <c r="B161" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" t="s">
+        <v>434</v>
+      </c>
+      <c r="D161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>435</v>
+      </c>
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" t="s">
+        <v>436</v>
+      </c>
+      <c r="D162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>437</v>
+      </c>
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C163" t="s">
+        <v>438</v>
+      </c>
+      <c r="D163">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B164" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" t="s">
+        <v>440</v>
+      </c>
+      <c r="D164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>441</v>
+      </c>
+      <c r="B165" t="s">
+        <v>213</v>
+      </c>
+      <c r="C165" t="s">
+        <v>442</v>
+      </c>
+      <c r="D165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>443</v>
+      </c>
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" t="s">
+        <v>444</v>
+      </c>
+      <c r="D166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>445</v>
+      </c>
+      <c r="B167" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" t="s">
+        <v>446</v>
+      </c>
+      <c r="D167">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>447</v>
+      </c>
+      <c r="B168" t="s">
+        <v>222</v>
+      </c>
+      <c r="C168" t="s">
+        <v>448</v>
+      </c>
+      <c r="D168">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>449</v>
+      </c>
+      <c r="B169" t="s">
+        <v>225</v>
+      </c>
+      <c r="C169" t="s">
+        <v>450</v>
+      </c>
+      <c r="D169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" t="s">
+        <v>228</v>
+      </c>
+      <c r="C170" t="s">
+        <v>452</v>
+      </c>
+      <c r="D170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>453</v>
+      </c>
+      <c r="B171" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" t="s">
+        <v>454</v>
+      </c>
+      <c r="D171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>455</v>
+      </c>
+      <c r="B172" t="s">
+        <v>234</v>
+      </c>
+      <c r="C172" t="s">
+        <v>456</v>
+      </c>
+      <c r="D172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>457</v>
+      </c>
+      <c r="B173" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" t="s">
+        <v>458</v>
+      </c>
+      <c r="D173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>459</v>
+      </c>
+      <c r="B174" t="s">
+        <v>240</v>
+      </c>
+      <c r="C174" t="s">
+        <v>460</v>
+      </c>
+      <c r="D174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>461</v>
+      </c>
+      <c r="B175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" t="s">
+        <v>462</v>
+      </c>
+      <c r="D175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>463</v>
+      </c>
+      <c r="B176" t="s">
+        <v>246</v>
+      </c>
+      <c r="C176" t="s">
+        <v>464</v>
+      </c>
+      <c r="D176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>465</v>
+      </c>
+      <c r="B177" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" t="s">
+        <v>466</v>
+      </c>
+      <c r="D177">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>467</v>
+      </c>
+      <c r="B178" t="s">
+        <v>252</v>
+      </c>
+      <c r="C178" t="s">
+        <v>468</v>
+      </c>
+      <c r="D178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>469</v>
+      </c>
+      <c r="B179" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" t="s">
+        <v>470</v>
+      </c>
+      <c r="D179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>471</v>
+      </c>
+      <c r="B180" t="s">
+        <v>258</v>
+      </c>
+      <c r="C180" t="s">
+        <v>472</v>
+      </c>
+      <c r="D180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>473</v>
+      </c>
+      <c r="B181" t="s">
+        <v>261</v>
+      </c>
+      <c r="C181" t="s">
+        <v>474</v>
+      </c>
+      <c r="D181">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>475</v>
+      </c>
+      <c r="B182" t="s">
+        <v>264</v>
+      </c>
+      <c r="C182" t="s">
+        <v>476</v>
+      </c>
+      <c r="D182">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>477</v>
+      </c>
+      <c r="B183" t="s">
+        <v>267</v>
+      </c>
+      <c r="C183" t="s">
+        <v>478</v>
+      </c>
+      <c r="D183">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>479</v>
+      </c>
+      <c r="B184" t="s">
+        <v>270</v>
+      </c>
+      <c r="C184" t="s">
+        <v>480</v>
+      </c>
+      <c r="D184">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>481</v>
+      </c>
+      <c r="B185" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" t="s">
+        <v>482</v>
+      </c>
+      <c r="D185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>483</v>
+      </c>
+      <c r="B186" t="s">
+        <v>276</v>
+      </c>
+      <c r="C186" t="s">
+        <v>484</v>
+      </c>
+      <c r="D186">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>485</v>
+      </c>
+      <c r="B187" t="s">
+        <v>279</v>
+      </c>
+      <c r="C187" t="s">
+        <v>486</v>
+      </c>
+      <c r="D187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>487</v>
+      </c>
+      <c r="B188" t="s">
+        <v>282</v>
+      </c>
+      <c r="C188" t="s">
+        <v>488</v>
+      </c>
+      <c r="D188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" t="s">
+        <v>285</v>
+      </c>
+      <c r="C189" t="s">
+        <v>490</v>
+      </c>
+      <c r="D189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>491</v>
+      </c>
+      <c r="B190" t="s">
+        <v>288</v>
+      </c>
+      <c r="C190" t="s">
+        <v>492</v>
+      </c>
+      <c r="D190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>493</v>
+      </c>
+      <c r="B191" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191" t="s">
+        <v>494</v>
+      </c>
+      <c r="D191">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B192" t="s">
+        <v>294</v>
+      </c>
+      <c r="C192" t="s">
+        <v>496</v>
+      </c>
+      <c r="D192">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>497</v>
+      </c>
+      <c r="B193" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" t="s">
+        <v>498</v>
+      </c>
+      <c r="D193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>499</v>
+      </c>
+      <c r="B194" t="s">
+        <v>300</v>
+      </c>
+      <c r="C194" t="s">
+        <v>500</v>
+      </c>
+      <c r="D194">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>501</v>
+      </c>
+      <c r="B195" t="s">
+        <v>303</v>
+      </c>
+      <c r="C195" t="s">
+        <v>502</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>503</v>
+      </c>
+      <c r="B196" t="s">
+        <v>306</v>
+      </c>
+      <c r="C196" t="s">
+        <v>504</v>
+      </c>
+      <c r="D196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>505</v>
+      </c>
+      <c r="B197" t="s">
+        <v>309</v>
+      </c>
+      <c r="C197" t="s">
+        <v>506</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>507</v>
+      </c>
+      <c r="B198" t="s">
+        <v>312</v>
+      </c>
+      <c r="C198" t="s">
+        <v>508</v>
+      </c>
+      <c r="D198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>509</v>
+      </c>
+      <c r="B199" t="s">
+        <v>315</v>
+      </c>
+      <c r="C199" t="s">
+        <v>510</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>511</v>
+      </c>
+      <c r="B200" t="s">
+        <v>318</v>
+      </c>
+      <c r="C200" t="s">
+        <v>512</v>
+      </c>
+      <c r="D200">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>513</v>
+      </c>
+      <c r="B201" t="s">
+        <v>321</v>
+      </c>
+      <c r="C201" t="s">
+        <v>514</v>
+      </c>
+      <c r="D201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>515</v>
+      </c>
+      <c r="B202" t="s">
+        <v>516</v>
+      </c>
+      <c r="C202" t="s">
+        <v>517</v>
+      </c>
+      <c r="D202">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>518</v>
+      </c>
+      <c r="B203" t="s">
+        <v>519</v>
+      </c>
+      <c r="C203" t="s">
+        <v>520</v>
+      </c>
+      <c r="D203">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>521</v>
+      </c>
+      <c r="B204" t="s">
+        <v>522</v>
+      </c>
+      <c r="C204" t="s">
+        <v>523</v>
+      </c>
+      <c r="D204">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>524</v>
+      </c>
+      <c r="B205" t="s">
+        <v>525</v>
+      </c>
+      <c r="C205" t="s">
+        <v>526</v>
+      </c>
+      <c r="D205">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="417">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-26</t>
+    <t>2023-04-27</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>
@@ -1216,517 +1216,187 @@
     <t>M2|b0455;NC_000913.3:476447-476561|f|L|</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACT</t>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
   </si>
   <si>
     <t>M2|b0455;NC_000913.3:476447-476561|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4425;NC_000913.3:1287065-1287236|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4429;NC_000913.3:1492118-1492175|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4431;NC_000913.3:1770371-1770477|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4432;NC_000913.3:1923065-1923337|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4439;NC_000913.3:2313083-2313176|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4440;NC_000913.3:2653854-2654158|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4442;NC_000913.3:2814801-2814874|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4444;NC_000913.3:2976101-2976189|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4445;NC_000913.3:2976303-2976385|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4454;NC_000913.3:3700135-3700199|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4459;NC_000913.3:4277925-4278066|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4616;NC_000913.3:3853117-3853257|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4698;NC_000913.3:1622816-1622914|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4701;NC_000913.3:2887352-2887411|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4718;NC_000913.3:3658991-3659082|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4760;NC_000913.3:3808165-3808238|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4761;NC_000913.3:2640594-2640686|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4764;NC_000913.3:765049-765150|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4804;NC_000913.3:3937044-3937278|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4805;NC_000913.3:2737380-2737542|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4808;NC_000913.3:708235-708333|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4809;NC_000913.3:194783-194844|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4810;NC_000913.3:92484-92658|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4827;NC_000913.3:2001911-2002106|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4828;NC_000913.3:1977207-1977302|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4833;NC_000913.3:1418404-1418502|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCATAACA</t>
+    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>M2|b4835;NC_000913.3:607732-607792|f|R|</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>M2|b0455;NC_000913.3:476447-476561|p|1|</t>
-  </si>
-  <si>
-    <t>GCACAAAGCATCTTCTGTTGAGT</t>
-  </si>
-  <si>
-    <t>M2|b4810;NC_000913.3:92484-92658|g|1|</t>
-  </si>
-  <si>
-    <t>GAAGTGCTGGCGATGGCTAA</t>
-  </si>
-  <si>
-    <t>M2|b4809;NC_000913.3:194783-194844|g|1|</t>
-  </si>
-  <si>
-    <t>AACGAAATCACCGTTGCTGC</t>
-  </si>
-  <si>
-    <t>M2|b0455;NC_000913.3:476447-476561|g|1|</t>
-  </si>
-  <si>
-    <t>TTCGCCACATCACCGTAAGT</t>
-  </si>
-  <si>
-    <t>M2|b4835;NC_000913.3:607732-607792|g|1|</t>
-  </si>
-  <si>
-    <t>GGTGAACTGATGGTGCCTGA</t>
-  </si>
-  <si>
-    <t>M2|b4808;NC_000913.3:708235-708333|g|1|</t>
-  </si>
-  <si>
-    <t>TCTTCGCGAATTAATTCCGCT</t>
-  </si>
-  <si>
-    <t>M2|b4764;NC_000913.3:765049-765150|g|1|</t>
-  </si>
-  <si>
-    <t>GATCGGTGAGATCGGCGGTA</t>
-  </si>
-  <si>
-    <t>M2|b4425;NC_000913.3:1287065-1287236|g|1|</t>
-  </si>
-  <si>
-    <t>TTCTCATCCTTCCCCGCTTG</t>
-  </si>
-  <si>
-    <t>M2|b4833;NC_000913.3:1418404-1418502|g|1|</t>
-  </si>
-  <si>
-    <t>TCCGGCCTTCATGAAGAACA</t>
-  </si>
-  <si>
-    <t>M2|b4429;NC_000913.3:1492118-1492175|g|1|</t>
-  </si>
-  <si>
-    <t>AGGGGTGCCATGAGAAAATGA</t>
-  </si>
-  <si>
-    <t>M2|b4698;NC_000913.3:1622816-1622914|g|1|</t>
-  </si>
-  <si>
-    <t>CCTTCGTTTAGGTTACCTCTGCT</t>
-  </si>
-  <si>
-    <t>M2|b4431;NC_000913.3:1770371-1770477|g|1|</t>
-  </si>
-  <si>
-    <t>AAGAAGTCCCGCCGCC</t>
-  </si>
-  <si>
-    <t>M2|b4432;NC_000913.3:1923065-1923337|g|1|</t>
-  </si>
-  <si>
-    <t>TCGATAACGTCTCCCACTGAG</t>
-  </si>
-  <si>
-    <t>M2|b4828;NC_000913.3:1977207-1977302|g|1|</t>
-  </si>
-  <si>
-    <t>GCCTTCAGCGTGCCTTTAAT</t>
-  </si>
-  <si>
-    <t>M2|b4827;NC_000913.3:2001911-2002106|g|1|</t>
-  </si>
-  <si>
-    <t>CGCCTGTAGCAGATCGTCAA</t>
-  </si>
-  <si>
-    <t>M2|b4439;NC_000913.3:2313083-2313176|g|1|</t>
-  </si>
-  <si>
-    <t>GGCAAGTCCATTCTCCCCAA</t>
-  </si>
-  <si>
-    <t>M2|b4761;NC_000913.3:2640594-2640686|g|1|</t>
-  </si>
-  <si>
-    <t>CGCAGAGTCAGGCTGTCG</t>
-  </si>
-  <si>
-    <t>M2|b4805;NC_000913.3:2737380-2737542|g|1|</t>
-  </si>
-  <si>
-    <t>CACCAAGACGGGAAGACAAGA</t>
-  </si>
-  <si>
-    <t>M2|b4442;NC_000913.3:2814801-2814874|g|1|</t>
-  </si>
-  <si>
-    <t>CAAACAGGTGCTCCAGGGTA</t>
-  </si>
-  <si>
-    <t>M2|b4701;NC_000913.3:2887352-2887411|g|1|</t>
-  </si>
-  <si>
-    <t>TGATCCCACCAGCAATCTGC</t>
-  </si>
-  <si>
-    <t>M2|b4444;NC_000913.3:2976101-2976189|g|1|</t>
-  </si>
-  <si>
-    <t>ACACTGGACGCACAGGTAAA</t>
-  </si>
-  <si>
-    <t>M2|b4445;NC_000913.3:2976303-2976385|g|1|</t>
-  </si>
-  <si>
-    <t>AGCGAATGGAGGGAGATTACAC</t>
-  </si>
-  <si>
-    <t>M2|b4454;NC_000913.3:3700135-3700199|g|1|</t>
-  </si>
-  <si>
-    <t>GTAAGAACGAAAAAGGCCGCA</t>
-  </si>
-  <si>
-    <t>M2|b4760;NC_000913.3:3808165-3808238|g|1|</t>
-  </si>
-  <si>
-    <t>TATCGAAAGTTCCCGCACCT</t>
-  </si>
-  <si>
-    <t>M2|b4616;NC_000913.3:3853117-3853257|g|1|</t>
-  </si>
-  <si>
-    <t>CGTGTGTTGTTCCAGTCCCT</t>
-  </si>
-  <si>
-    <t>M2|b4804;NC_000913.3:3937044-3937278|g|1|</t>
-  </si>
-  <si>
-    <t>CCGTTGCTGCTCACAAGTTT</t>
-  </si>
-  <si>
-    <t>M2|b4459;NC_000913.3:4277925-4278066|g|1|</t>
-  </si>
-  <si>
-    <t>CGACCATTGGTGAAGCGTTT</t>
-  </si>
-  <si>
-    <t>M2|b4810;NC_000913.3:92484-92658|g|2|</t>
-  </si>
-  <si>
-    <t>GCGGTACCGGTTTTAATGGC</t>
-  </si>
-  <si>
-    <t>M2|b4809;NC_000913.3:194783-194844|g|2|</t>
-  </si>
-  <si>
-    <t>GCCTCAATACCGTTGTTGGC</t>
-  </si>
-  <si>
-    <t>M2|b0455;NC_000913.3:476447-476561|g|2|</t>
-  </si>
-  <si>
-    <t>TCACTTTGCCATCCGGTACA</t>
-  </si>
-  <si>
-    <t>M2|b4835;NC_000913.3:607732-607792|g|2|</t>
-  </si>
-  <si>
-    <t>CAGGCGTAATACCACAACCCT</t>
-  </si>
-  <si>
-    <t>M2|b4808;NC_000913.3:708235-708333|g|2|</t>
-  </si>
-  <si>
-    <t>TCAGCAGCATAACCGGACTG</t>
-  </si>
-  <si>
-    <t>M2|b4764;NC_000913.3:765049-765150|g|2|</t>
-  </si>
-  <si>
-    <t>GGCAGGTCATGGAAAATTCGA</t>
-  </si>
-  <si>
-    <t>M2|b4425;NC_000913.3:1287065-1287236|g|2|</t>
-  </si>
-  <si>
-    <t>CATCGGGGAAGGGTGAGAAC</t>
-  </si>
-  <si>
-    <t>M2|b4833;NC_000913.3:1418404-1418502|g|2|</t>
-  </si>
-  <si>
-    <t>GCCAGAGAGTGAGACCAAAA</t>
-  </si>
-  <si>
-    <t>M2|b4429;NC_000913.3:1492118-1492175|g|2|</t>
-  </si>
-  <si>
-    <t>AGAAAGTCATCGGCACTTGAC</t>
-  </si>
-  <si>
-    <t>M2|b4698;NC_000913.3:1622816-1622914|g|2|</t>
-  </si>
-  <si>
-    <t>TGCAGGTGTCAGAATTTGCC</t>
-  </si>
-  <si>
-    <t>M2|b4431;NC_000913.3:1770371-1770477|g|2|</t>
-  </si>
-  <si>
-    <t>GCACACTTGCCATTTTCCCA</t>
-  </si>
-  <si>
-    <t>M2|b4432;NC_000913.3:1923065-1923337|g|2|</t>
-  </si>
-  <si>
-    <t>GCGAAGAGGTGATGCTGACT</t>
-  </si>
-  <si>
-    <t>M2|b4828;NC_000913.3:1977207-1977302|g|2|</t>
-  </si>
-  <si>
-    <t>CGGTGATCAAAGCCTACCGT</t>
-  </si>
-  <si>
-    <t>M2|b4827;NC_000913.3:2001911-2002106|g|2|</t>
-  </si>
-  <si>
-    <t>CGCATCTGTAGACAAATTCCGT</t>
-  </si>
-  <si>
-    <t>M2|b4439;NC_000913.3:2313083-2313176|g|2|</t>
-  </si>
-  <si>
-    <t>AGGGTACAGTGTGAAATTCCAGA</t>
-  </si>
-  <si>
-    <t>M2|b4761;NC_000913.3:2640594-2640686|g|2|</t>
-  </si>
-  <si>
-    <t>GGAGCAACGCCTGGAAGATA</t>
-  </si>
-  <si>
-    <t>M2|b4440;NC_000913.3:2653854-2654158|g|2|</t>
-  </si>
-  <si>
-    <t>AGAGAACGAAGAGGCACAGC</t>
-  </si>
-  <si>
-    <t>M2|b4805;NC_000913.3:2737380-2737542|g|2|</t>
-  </si>
-  <si>
-    <t>GCGCTGATTTTCTCTCGCAG</t>
-  </si>
-  <si>
-    <t>M2|b4442;NC_000913.3:2814801-2814874|g|2|</t>
-  </si>
-  <si>
-    <t>GCCTGCTTCGATAATCCCGA</t>
-  </si>
-  <si>
-    <t>M2|b4701;NC_000913.3:2887352-2887411|g|2|</t>
-  </si>
-  <si>
-    <t>GCGATACCCATACAACCCGT</t>
-  </si>
-  <si>
-    <t>M2|b4444;NC_000913.3:2976101-2976189|g|2|</t>
-  </si>
-  <si>
-    <t>CGATTGACCGCTGGTGGC</t>
-  </si>
-  <si>
-    <t>M2|b4445;NC_000913.3:2976303-2976385|g|2|</t>
-  </si>
-  <si>
-    <t>GACTGAAACGCCTGCCAGTC</t>
-  </si>
-  <si>
-    <t>M2|b4718;NC_000913.3:3658991-3659082|g|2|</t>
-  </si>
-  <si>
-    <t>CCGACCTCAGGCGTCATG</t>
-  </si>
-  <si>
-    <t>M2|b4454;NC_000913.3:3700135-3700199|g|2|</t>
-  </si>
-  <si>
-    <t>CAGATTCACTGGGGAGGTCG</t>
-  </si>
-  <si>
-    <t>M3|b4760;NC_000913.3:3808165-3808238|g|2|</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>TGGCTTTACCATTACTTTTCCCG</t>
-  </si>
-  <si>
-    <t>M3|b4616;NC_000913.3:3853117-3853257|g|2|</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>TACCTTTCCGCTGCCTGTTG</t>
-  </si>
-  <si>
-    <t>M3|b4804;NC_000913.3:3937044-3937278|g|2|</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>TTATCAGTGGCGAGCTGCTG</t>
-  </si>
-  <si>
-    <t>M3|b4459;NC_000913.3:4277925-4278066|g|2|</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>TTATCCGGCGATCATAGCGG</t>
+    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>M2|plasmid|b|L|</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTTGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M2|plasmid|b|R|</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTACAGGCCCATGGATTCTTCG</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1500,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D206" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D153" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -2126,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3890,7 +3560,7 @@
         <v>356</v>
       </c>
       <c r="D122">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3904,7 +3574,7 @@
         <v>358</v>
       </c>
       <c r="D123">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3918,7 +3588,7 @@
         <v>360</v>
       </c>
       <c r="D124">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3932,7 +3602,7 @@
         <v>362</v>
       </c>
       <c r="D125">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3946,7 +3616,7 @@
         <v>364</v>
       </c>
       <c r="D126">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3960,7 +3630,7 @@
         <v>366</v>
       </c>
       <c r="D127">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3974,7 +3644,7 @@
         <v>368</v>
       </c>
       <c r="D128">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3988,7 +3658,7 @@
         <v>370</v>
       </c>
       <c r="D129">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4002,7 +3672,7 @@
         <v>372</v>
       </c>
       <c r="D130">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4016,7 +3686,7 @@
         <v>374</v>
       </c>
       <c r="D131">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4030,7 +3700,7 @@
         <v>376</v>
       </c>
       <c r="D132">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4044,7 +3714,7 @@
         <v>378</v>
       </c>
       <c r="D133">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4058,7 +3728,7 @@
         <v>380</v>
       </c>
       <c r="D134">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4072,7 +3742,7 @@
         <v>382</v>
       </c>
       <c r="D135">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4086,7 +3756,7 @@
         <v>384</v>
       </c>
       <c r="D136">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4100,7 +3770,7 @@
         <v>386</v>
       </c>
       <c r="D137">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4114,7 +3784,7 @@
         <v>388</v>
       </c>
       <c r="D138">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4128,7 +3798,7 @@
         <v>390</v>
       </c>
       <c r="D139">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4142,7 +3812,7 @@
         <v>392</v>
       </c>
       <c r="D140">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4156,7 +3826,7 @@
         <v>394</v>
       </c>
       <c r="D141">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4170,7 +3840,7 @@
         <v>396</v>
       </c>
       <c r="D142">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4184,7 +3854,7 @@
         <v>398</v>
       </c>
       <c r="D143">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4198,7 +3868,7 @@
         <v>400</v>
       </c>
       <c r="D144">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4212,7 +3882,7 @@
         <v>402</v>
       </c>
       <c r="D145">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4226,7 +3896,7 @@
         <v>404</v>
       </c>
       <c r="D146">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4240,7 +3910,7 @@
         <v>406</v>
       </c>
       <c r="D147">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4254,7 +3924,7 @@
         <v>408</v>
       </c>
       <c r="D148">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4268,7 +3938,7 @@
         <v>410</v>
       </c>
       <c r="D149">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4282,7 +3952,7 @@
         <v>412</v>
       </c>
       <c r="D150">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4296,7 +3966,7 @@
         <v>414</v>
       </c>
       <c r="D151">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4310,749 +3980,7 @@
         <v>416</v>
       </c>
       <c r="D152">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>417</v>
-      </c>
-      <c r="B153" t="s">
-        <v>177</v>
-      </c>
-      <c r="C153" t="s">
-        <v>418</v>
-      </c>
-      <c r="D153">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>419</v>
-      </c>
-      <c r="B154" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" t="s">
-        <v>420</v>
-      </c>
-      <c r="D154">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>421</v>
-      </c>
-      <c r="B155" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" t="s">
-        <v>422</v>
-      </c>
-      <c r="D155">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>423</v>
-      </c>
-      <c r="B156" t="s">
-        <v>186</v>
-      </c>
-      <c r="C156" t="s">
-        <v>424</v>
-      </c>
-      <c r="D156">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>425</v>
-      </c>
-      <c r="B157" t="s">
-        <v>189</v>
-      </c>
-      <c r="C157" t="s">
-        <v>426</v>
-      </c>
-      <c r="D157">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>427</v>
-      </c>
-      <c r="B158" t="s">
-        <v>192</v>
-      </c>
-      <c r="C158" t="s">
-        <v>428</v>
-      </c>
-      <c r="D158">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>429</v>
-      </c>
-      <c r="B159" t="s">
-        <v>195</v>
-      </c>
-      <c r="C159" t="s">
-        <v>430</v>
-      </c>
-      <c r="D159">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>431</v>
-      </c>
-      <c r="B160" t="s">
-        <v>198</v>
-      </c>
-      <c r="C160" t="s">
-        <v>432</v>
-      </c>
-      <c r="D160">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>433</v>
-      </c>
-      <c r="B161" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" t="s">
-        <v>434</v>
-      </c>
-      <c r="D161">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>435</v>
-      </c>
-      <c r="B162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C162" t="s">
-        <v>436</v>
-      </c>
-      <c r="D162">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>437</v>
-      </c>
-      <c r="B163" t="s">
-        <v>207</v>
-      </c>
-      <c r="C163" t="s">
-        <v>438</v>
-      </c>
-      <c r="D163">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>439</v>
-      </c>
-      <c r="B164" t="s">
-        <v>210</v>
-      </c>
-      <c r="C164" t="s">
-        <v>440</v>
-      </c>
-      <c r="D164">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>441</v>
-      </c>
-      <c r="B165" t="s">
-        <v>213</v>
-      </c>
-      <c r="C165" t="s">
-        <v>442</v>
-      </c>
-      <c r="D165">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>443</v>
-      </c>
-      <c r="B166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166" t="s">
-        <v>444</v>
-      </c>
-      <c r="D166">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>445</v>
-      </c>
-      <c r="B167" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" t="s">
-        <v>446</v>
-      </c>
-      <c r="D167">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>447</v>
-      </c>
-      <c r="B168" t="s">
-        <v>222</v>
-      </c>
-      <c r="C168" t="s">
-        <v>448</v>
-      </c>
-      <c r="D168">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>449</v>
-      </c>
-      <c r="B169" t="s">
-        <v>225</v>
-      </c>
-      <c r="C169" t="s">
-        <v>450</v>
-      </c>
-      <c r="D169">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>451</v>
-      </c>
-      <c r="B170" t="s">
-        <v>228</v>
-      </c>
-      <c r="C170" t="s">
-        <v>452</v>
-      </c>
-      <c r="D170">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>453</v>
-      </c>
-      <c r="B171" t="s">
-        <v>231</v>
-      </c>
-      <c r="C171" t="s">
-        <v>454</v>
-      </c>
-      <c r="D171">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>455</v>
-      </c>
-      <c r="B172" t="s">
-        <v>234</v>
-      </c>
-      <c r="C172" t="s">
-        <v>456</v>
-      </c>
-      <c r="D172">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>457</v>
-      </c>
-      <c r="B173" t="s">
-        <v>237</v>
-      </c>
-      <c r="C173" t="s">
-        <v>458</v>
-      </c>
-      <c r="D173">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>459</v>
-      </c>
-      <c r="B174" t="s">
-        <v>240</v>
-      </c>
-      <c r="C174" t="s">
-        <v>460</v>
-      </c>
-      <c r="D174">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>461</v>
-      </c>
-      <c r="B175" t="s">
-        <v>243</v>
-      </c>
-      <c r="C175" t="s">
-        <v>462</v>
-      </c>
-      <c r="D175">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>463</v>
-      </c>
-      <c r="B176" t="s">
-        <v>246</v>
-      </c>
-      <c r="C176" t="s">
-        <v>464</v>
-      </c>
-      <c r="D176">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>465</v>
-      </c>
-      <c r="B177" t="s">
-        <v>249</v>
-      </c>
-      <c r="C177" t="s">
-        <v>466</v>
-      </c>
-      <c r="D177">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>467</v>
-      </c>
-      <c r="B178" t="s">
-        <v>252</v>
-      </c>
-      <c r="C178" t="s">
-        <v>468</v>
-      </c>
-      <c r="D178">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>469</v>
-      </c>
-      <c r="B179" t="s">
-        <v>255</v>
-      </c>
-      <c r="C179" t="s">
-        <v>470</v>
-      </c>
-      <c r="D179">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>471</v>
-      </c>
-      <c r="B180" t="s">
-        <v>258</v>
-      </c>
-      <c r="C180" t="s">
-        <v>472</v>
-      </c>
-      <c r="D180">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>473</v>
-      </c>
-      <c r="B181" t="s">
-        <v>261</v>
-      </c>
-      <c r="C181" t="s">
-        <v>474</v>
-      </c>
-      <c r="D181">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>475</v>
-      </c>
-      <c r="B182" t="s">
-        <v>264</v>
-      </c>
-      <c r="C182" t="s">
-        <v>476</v>
-      </c>
-      <c r="D182">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>477</v>
-      </c>
-      <c r="B183" t="s">
-        <v>267</v>
-      </c>
-      <c r="C183" t="s">
-        <v>478</v>
-      </c>
-      <c r="D183">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>479</v>
-      </c>
-      <c r="B184" t="s">
-        <v>270</v>
-      </c>
-      <c r="C184" t="s">
-        <v>480</v>
-      </c>
-      <c r="D184">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>481</v>
-      </c>
-      <c r="B185" t="s">
-        <v>273</v>
-      </c>
-      <c r="C185" t="s">
-        <v>482</v>
-      </c>
-      <c r="D185">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>483</v>
-      </c>
-      <c r="B186" t="s">
-        <v>276</v>
-      </c>
-      <c r="C186" t="s">
-        <v>484</v>
-      </c>
-      <c r="D186">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>485</v>
-      </c>
-      <c r="B187" t="s">
-        <v>279</v>
-      </c>
-      <c r="C187" t="s">
-        <v>486</v>
-      </c>
-      <c r="D187">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>487</v>
-      </c>
-      <c r="B188" t="s">
-        <v>282</v>
-      </c>
-      <c r="C188" t="s">
-        <v>488</v>
-      </c>
-      <c r="D188">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>489</v>
-      </c>
-      <c r="B189" t="s">
-        <v>285</v>
-      </c>
-      <c r="C189" t="s">
-        <v>490</v>
-      </c>
-      <c r="D189">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>491</v>
-      </c>
-      <c r="B190" t="s">
-        <v>288</v>
-      </c>
-      <c r="C190" t="s">
-        <v>492</v>
-      </c>
-      <c r="D190">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>493</v>
-      </c>
-      <c r="B191" t="s">
-        <v>291</v>
-      </c>
-      <c r="C191" t="s">
-        <v>494</v>
-      </c>
-      <c r="D191">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>495</v>
-      </c>
-      <c r="B192" t="s">
-        <v>294</v>
-      </c>
-      <c r="C192" t="s">
-        <v>496</v>
-      </c>
-      <c r="D192">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>497</v>
-      </c>
-      <c r="B193" t="s">
-        <v>297</v>
-      </c>
-      <c r="C193" t="s">
-        <v>498</v>
-      </c>
-      <c r="D193">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>499</v>
-      </c>
-      <c r="B194" t="s">
-        <v>300</v>
-      </c>
-      <c r="C194" t="s">
-        <v>500</v>
-      </c>
-      <c r="D194">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>501</v>
-      </c>
-      <c r="B195" t="s">
-        <v>303</v>
-      </c>
-      <c r="C195" t="s">
-        <v>502</v>
-      </c>
-      <c r="D195">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>503</v>
-      </c>
-      <c r="B196" t="s">
-        <v>306</v>
-      </c>
-      <c r="C196" t="s">
-        <v>504</v>
-      </c>
-      <c r="D196">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>505</v>
-      </c>
-      <c r="B197" t="s">
-        <v>309</v>
-      </c>
-      <c r="C197" t="s">
-        <v>506</v>
-      </c>
-      <c r="D197">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>507</v>
-      </c>
-      <c r="B198" t="s">
-        <v>312</v>
-      </c>
-      <c r="C198" t="s">
-        <v>508</v>
-      </c>
-      <c r="D198">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>509</v>
-      </c>
-      <c r="B199" t="s">
-        <v>315</v>
-      </c>
-      <c r="C199" t="s">
-        <v>510</v>
-      </c>
-      <c r="D199">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>511</v>
-      </c>
-      <c r="B200" t="s">
-        <v>318</v>
-      </c>
-      <c r="C200" t="s">
-        <v>512</v>
-      </c>
-      <c r="D200">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>513</v>
-      </c>
-      <c r="B201" t="s">
-        <v>321</v>
-      </c>
-      <c r="C201" t="s">
-        <v>514</v>
-      </c>
-      <c r="D201">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>515</v>
-      </c>
-      <c r="B202" t="s">
-        <v>516</v>
-      </c>
-      <c r="C202" t="s">
-        <v>517</v>
-      </c>
-      <c r="D202">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>518</v>
-      </c>
-      <c r="B203" t="s">
-        <v>519</v>
-      </c>
-      <c r="C203" t="s">
-        <v>520</v>
-      </c>
-      <c r="D203">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>521</v>
-      </c>
-      <c r="B204" t="s">
-        <v>522</v>
-      </c>
-      <c r="C204" t="s">
-        <v>523</v>
-      </c>
-      <c r="D204">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>524</v>
-      </c>
-      <c r="B205" t="s">
-        <v>525</v>
-      </c>
-      <c r="C205" t="s">
-        <v>526</v>
-      </c>
-      <c r="D205">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
@@ -262,10 +262,19 @@
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|L|</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|L|</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>C1</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
@@ -274,34 +283,79 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|L|</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCAC</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|L|</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|L|</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGC</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|L|</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|L|</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|L|</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|R|</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>B2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|R|</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|R|</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>D2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
@@ -310,97 +364,223 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|R|</t>
   </si>
   <si>
-    <t>G1</t>
+    <t>E2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|R|</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|R|</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|R|</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|R|</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|R|</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|L|</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCC</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|L|</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|L|</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTG</t>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|L|</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>F3</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|L|</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|L|</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>H3</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|L|</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|L|</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|L|</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|R|</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>D4</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTCAAAGTCCGTGCAGAAATGCGGG</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|R|</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCATGTAAAGTTCGGACTTTTCTGGA</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|R|</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGTT</t>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGT</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|R|</t>
   </si>
   <si>
-    <t>G2</t>
+    <t>G4</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTCATTTCCAAAATATCATTACCCACTGG</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|R|</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAATCCCTTCTCCGGCATCATCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|R|</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>A5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTCACTGCAGCACACCGAGCAAAAGC</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|R|</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACCGGAATTTACTATCCCGGCCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|R|</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAGCAGTGGCGCACCGCTATG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|R|</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACCTCCAGAACGCGGTCGAGT</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|L|</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>E5</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
@@ -409,16 +589,25 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|R|</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>F5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|f|R|</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|f|R|</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>H5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
@@ -427,7 +616,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|f|R|</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>A6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
@@ -436,52 +625,97 @@
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|f|R|</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>B6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|f|R|</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|f|R|</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|f|R|</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>M1|plasmid|b|L|</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTT</t>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>M1|plasmid|b|R|</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGA</t>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
   </si>
   <si>
-    <t>H3</t>
+    <t>H6</t>
   </si>
   <si>
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGC</t>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|1|</t>
   </si>
   <si>
-    <t>B4</t>
+    <t>D7</t>
   </si>
   <si>
     <t>TGCTCACCCAGAAACGCTG</t>
@@ -490,25 +724,79 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|2|</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>E7</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|3|</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|3|</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>acaggatctggcgaaagagtgcg</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|4|</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>cgcgaagtggttgagcagga</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|5|</t>
+  </si>
+  <si>
+    <t>H7</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>GCAACGGAACTATCCCTCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>GCGCGCACATTCAGGCCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCC</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>E8</t>
   </si>
   <si>
     <t>ACACCATCTACACCCGCGACA</t>
@@ -517,7 +805,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
   </si>
   <si>
-    <t>F4</t>
+    <t>F8</t>
   </si>
   <si>
     <t>ACCTTGGGCCTGGCGCT</t>
@@ -526,7 +814,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
   </si>
   <si>
-    <t>G4</t>
+    <t>G8</t>
   </si>
   <si>
     <t>GGAGCCACCACAGACCCGT</t>
@@ -535,16 +823,61 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
   </si>
   <si>
-    <t>H4</t>
+    <t>H8</t>
   </si>
   <si>
     <t>AGGACTCGACGAGCTCCACA</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>CCACCGACGTGACGCGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>AGGCGGGCCTTTTCCACGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>TGCTGCTCGCCACCGTGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>ACCAAATAAATGTTAGACCCAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
   </si>
   <si>
-    <t>A5</t>
+    <t>F9</t>
   </si>
   <si>
     <t>CCACGGATGGTGCCCTCA</t>
@@ -553,7 +886,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
   </si>
   <si>
-    <t>B5</t>
+    <t>G9</t>
   </si>
   <si>
     <t>AGGTTCCACTGATTCACACCCA</t>
@@ -562,7 +895,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>H9</t>
   </si>
   <si>
     <t>TGGTGAAAGATGCACGACCTGGA</t>
@@ -571,10 +904,19 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
   </si>
   <si>
-    <t>D5</t>
+    <t>A10</t>
   </si>
   <si>
     <t>AGAAGAATCCCCGCAGCTCTG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>AGCCGACCACCGCATCCC</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D46" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D84" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -974,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1526,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1198,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1212,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1240,7 +1582,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1254,7 +1596,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1268,7 +1610,7 @@
         <v>58</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1282,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1310,7 +1652,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1324,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1338,7 +1680,7 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1352,7 +1694,7 @@
         <v>76</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1366,7 +1708,7 @@
         <v>79</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1380,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="D25">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1394,7 +1736,7 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1408,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1422,7 +1764,7 @@
         <v>91</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1436,7 +1778,7 @@
         <v>94</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1450,7 +1792,7 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1464,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1478,7 +1820,7 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1492,7 +1834,7 @@
         <v>106</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1506,7 +1848,7 @@
         <v>109</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1520,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1534,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1548,7 +1890,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1562,7 +1904,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1576,7 +1918,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1590,7 +1932,7 @@
         <v>127</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1604,7 +1946,7 @@
         <v>130</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1618,7 +1960,7 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1632,7 +1974,7 @@
         <v>136</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1646,7 +1988,7 @@
         <v>139</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1660,7 +2002,539 @@
         <v>142</v>
       </c>
       <c r="D45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69">
         <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -19,7 +19,7 @@
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-27</t>
+    <t>2023-05-04</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_primer_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
@@ -259,7 +259,7 @@
     <t>A1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|L|</t>
@@ -268,7 +268,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGT</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|L|</t>
@@ -277,7 +277,7 @@
     <t>C1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGG</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|L|</t>
@@ -286,7 +286,7 @@
     <t>D1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|L|</t>
@@ -295,7 +295,7 @@
     <t>E1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|L|</t>
@@ -304,7 +304,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGG</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|L|</t>
@@ -313,7 +313,7 @@
     <t>G1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCGC</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|L|</t>
@@ -322,7 +322,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCG</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|L|</t>
@@ -331,7 +331,7 @@
     <t>A2</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|R|</t>
@@ -340,7 +340,7 @@
     <t>B2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+    <t>GGTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|R|</t>
@@ -349,7 +349,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+    <t>GGTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|R|</t>
@@ -358,7 +358,7 @@
     <t>D2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
+    <t>GGTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|R|</t>
@@ -367,7 +367,7 @@
     <t>E2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+    <t>GGTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|R|</t>
@@ -376,7 +376,7 @@
     <t>F2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+    <t>GGTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|R|</t>
@@ -385,7 +385,7 @@
     <t>G2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+    <t>GGTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|R|</t>
@@ -394,7 +394,7 @@
     <t>H2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+    <t>GGTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|R|</t>
@@ -403,7 +403,7 @@
     <t>A3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+    <t>GGTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|R|</t>
@@ -412,7 +412,7 @@
     <t>B3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+    <t>GGTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|L|</t>
@@ -421,7 +421,7 @@
     <t>C3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|L|</t>
@@ -430,7 +430,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|L|</t>
@@ -439,7 +439,7 @@
     <t>E3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|L|</t>
@@ -448,7 +448,7 @@
     <t>F3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|L|</t>
@@ -457,7 +457,7 @@
     <t>G3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGT</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|L|</t>
@@ -466,7 +466,7 @@
     <t>H3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|L|</t>
@@ -475,7 +475,7 @@
     <t>A4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|L|</t>
@@ -484,7 +484,7 @@
     <t>B4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAATAA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|L|</t>
@@ -493,7 +493,7 @@
     <t>C4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|R|</t>
@@ -502,7 +502,7 @@
     <t>D4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCAAAGTCCGTGCAGAAATGCGGG</t>
+    <t>GGTCTTCTGTTCTCATAGCCAGTGGAACCCGCGC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|R|</t>
@@ -511,7 +511,7 @@
     <t>E4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCATGTAAAGTTCGGACTTTTCTGGA</t>
+    <t>GGTCTTCTGTTCTCAGAAGCCATAGAAGCCTGCAT</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|R|</t>
@@ -520,7 +520,7 @@
     <t>F4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGT</t>
+    <t>GGTCTTCTGTTCTCAAAGAACTGTACTAAATCCTGCCAGC</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|R|</t>
@@ -529,7 +529,7 @@
     <t>G4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCATTTCCAAAATATCATTACCCACTGG</t>
+    <t>GGTCTTCTGTTCTCACCTGTGAGTTTTCCAATGCCTTCGC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|R|</t>
@@ -538,7 +538,7 @@
     <t>H4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCAATCCCTTCTCCGGCATCATCGT</t>
+    <t>GGTCTTCTGTTCTCATCGACCTCTCCCGACTGATCACC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|R|</t>
@@ -547,7 +547,7 @@
     <t>A5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCACTGCAGCACACCGAGCAAAAGC</t>
+    <t>GGTCTTCTGTTCTCAGTCAATTGCTGATCTACATACCA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|R|</t>
@@ -556,7 +556,7 @@
     <t>B5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCACCGGAATTTACTATCCCGGCCGA</t>
+    <t>GGTCTTCTGTTCTCATATCGATCTTGATGCTATTGCGGA</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|R|</t>
@@ -565,7 +565,7 @@
     <t>C5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCAGCAGTGGCGCACCGCTATG</t>
+    <t>GGTCTTCTGTTCTCAGCACAACGGCGGGCCGAGAA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|R|</t>
@@ -574,7 +574,7 @@
     <t>D5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCACCTCCAGAACGCGGTCGAGT</t>
+    <t>GGTCTTCTGTTCTCACTCTACGGAGCGTGTGCGCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|L|</t>
@@ -583,7 +583,7 @@
     <t>E5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|f|R|</t>
@@ -592,7 +592,7 @@
     <t>F5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|f|R|</t>
@@ -601,7 +601,7 @@
     <t>G5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|f|R|</t>
@@ -610,7 +610,7 @@
     <t>H5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|f|R|</t>
@@ -619,7 +619,7 @@
     <t>A6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|f|R|</t>
@@ -628,7 +628,7 @@
     <t>B6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|f|R|</t>
@@ -637,7 +637,7 @@
     <t>C6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|f|R|</t>
@@ -646,7 +646,7 @@
     <t>D6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|f|R|</t>
@@ -655,7 +655,7 @@
     <t>E6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+    <t>GGTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
     <t>M1|plasmid|b|L|</t>
@@ -664,7 +664,7 @@
     <t>F6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>M1|plasmid|b|R|</t>
@@ -673,7 +673,7 @@
     <t>G6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+    <t>GGTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
@@ -682,7 +682,7 @@
     <t>H6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
@@ -691,7 +691,7 @@
     <t>A7</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
@@ -700,7 +700,7 @@
     <t>B7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+    <t>GGTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
@@ -709,7 +709,7 @@
     <t>C7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
+    <t>GGTCTTCTGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|1|</t>
@@ -730,28 +730,208 @@
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|3|</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>AGCATCTCCGAGCGCAACT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p|3|</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>ACCACCGAGTTTGATTTCGAAACG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p|3|</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>GCAGCCGCCGACATCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p|3|</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>GCCTGTTGTTGGGCGCGA</t>
+  </si>
+  <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|3|</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>acaggatctggcgaaagagtgcg</t>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>CCCAGCAGCGCCCACGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p|3|</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>ACGTTGCAGTGGAGCAGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p|3|</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>TGGTCGCACCCTTCTTATCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p|3|</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>CGGCATAAAACGCTCAGTGGTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p|3|</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>ACCGTGGTCAATGTGGGCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|4|</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>CACTGAGCGAACGCCTGCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p|4|</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p|4|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p|4|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>GGCACGCCGATTCCTTGGAC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|4|</t>
   </si>
   <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>cgcgaagtggttgagcagga</t>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>cctggcaggcactacagaaacact</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p|4|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>CCGGATCGCTTTGAGGGTCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p|4|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>TCCCTGATTATGCTGCTGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p|4|</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CCGACCATGAGCTTTTTCATCGCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p|4|</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>CGGACAGGACCTTGGGTTCGT</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|5|</t>
   </si>
   <si>
-    <t>H7</t>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>TCACTGCGTACAAAGAGGGCCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|5|</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>gcccatagcgcgcgtg</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|6|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>acccgctctctgatcatcacca</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p|7|</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CCCGGTGTTGGGCGACTGT</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p|8|</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
@@ -760,163 +940,163 @@
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>GCAACGGAACTATCCCTCGA</t>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>GCGCGCACATTCAGGCCG</t>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>ACAGCCCTGAACTGCCAAACCA</t>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTG</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>CCGTCAATGCTTGGTTCGGCC</t>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGA</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>ACACCATCTACACCCGCGACA</t>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
   </si>
   <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>ACCTTGGGCCTGGCGCT</t>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
   </si>
   <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>GGAGCCACCACAGACCCGT</t>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
   </si>
   <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>AGGACTCGACGAGCTCCACA</t>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>CCACCGACGTGACGCGGA</t>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>AGGCGGGCCTTTTCCACGT</t>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>GCCAAGAAACCGGCCAGGA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>TGCTGCTCGCCACCGTGA</t>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>GGTGTAGGGGTCGCAGGTTCA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>ACCAAATAAATGTTAGACCCAGT</t>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>GCTCCGTTGATGCCAGCGC</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>AGCAGTTGGAGCGCGATGC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
   </si>
   <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>CCACGGATGGTGCCCTCA</t>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>GCCAGAAGCTCGCGTGGGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>AGGTTCCACTGATTCACACCCA</t>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>TGTGTTCATGCTGGCTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
   </si>
   <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>TGGTGAAAGATGCACGACCTGGA</t>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>TGGTACGTGGCTACCGGCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>AGAAGAATCCCCGCAGCTCTG</t>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>GGCACCTGCGTCGGTTGG</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>AGCCGACCACCGCATCCC</t>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>GCCTCGCCATCGTCACAGGT</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1200,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D84" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D104" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1316,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1526,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1540,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1554,7 +1734,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1582,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1596,7 +1776,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1624,7 +1804,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1890,7 +2070,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1904,7 +2084,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1918,7 +2098,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1946,7 +2126,7 @@
         <v>130</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1960,7 +2140,7 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1974,7 +2154,7 @@
         <v>136</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1988,7 +2168,7 @@
         <v>139</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2254,7 +2434,7 @@
         <v>196</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2268,7 +2448,7 @@
         <v>199</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2282,7 +2462,7 @@
         <v>202</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2296,7 +2476,7 @@
         <v>205</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2310,7 +2490,7 @@
         <v>208</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2324,7 +2504,7 @@
         <v>211</v>
       </c>
       <c r="D68">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2352,7 +2532,7 @@
         <v>217</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2366,7 +2546,7 @@
         <v>220</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2394,7 +2574,7 @@
         <v>226</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2408,7 +2588,7 @@
         <v>229</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2422,7 +2602,7 @@
         <v>232</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2436,7 +2616,7 @@
         <v>235</v>
       </c>
       <c r="D76">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2450,7 +2630,7 @@
         <v>238</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2464,7 +2644,7 @@
         <v>241</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2478,7 +2658,7 @@
         <v>244</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2492,7 +2672,7 @@
         <v>247</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2506,7 +2686,7 @@
         <v>250</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2520,7 +2700,7 @@
         <v>253</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2534,7 +2714,287 @@
         <v>256</v>
       </c>
       <c r="D83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" t="s">
+        <v>259</v>
+      </c>
+      <c r="D84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85">
         <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
